--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b91a042c2b8c125c/Documents/GitHub/OptimizationTool/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99322185-645F-4E90-B1B9-F9977AAE962D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{99322185-645F-4E90-B1B9-F9977AAE962D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{05EEF5DF-E77A-4C8D-9F3C-1D30CD0234BF}"/>
   <bookViews>
-    <workbookView xWindow="6504" yWindow="3528" windowWidth="13824" windowHeight="7176" xr2:uid="{5D4735E8-F0CB-4442-952D-1E011154A99E}"/>
+    <workbookView minimized="1" xWindow="6696" yWindow="4092" windowWidth="13824" windowHeight="7176" xr2:uid="{5D4735E8-F0CB-4442-952D-1E011154A99E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Product Backlog</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,8 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +395,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62CE064-D8A7-4A35-A700-3EDC6A0492AC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b91a042c2b8c125c/Documents/GitHub/OptimizationTool/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crump\OneDrive\Documents\GitHub\OptimizationTool\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{99322185-645F-4E90-B1B9-F9977AAE962D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{05EEF5DF-E77A-4C8D-9F3C-1D30CD0234BF}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{99322185-645F-4E90-B1B9-F9977AAE962D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{2E92EEDB-4CC9-412F-980F-9BC9DD7D216D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6696" yWindow="4092" windowWidth="13824" windowHeight="7176" xr2:uid="{5D4735E8-F0CB-4442-952D-1E011154A99E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D4735E8-F0CB-4442-952D-1E011154A99E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Product Backlog</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Sprint #</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to change Mutation Rate for GA</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to run a PSO</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to change the intertia component for PSO</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to change the cognitive component for PSO</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to change the population size for PSO</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to run a GA-PSO hybrid 1</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to change parameters for GA-PSO hybrid 1</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to run a GA-PSO hybrid 2</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to change parameters for GA-PSO hybrid 2</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to run a GA-PSO hybrid 3</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to change parameters for GA-PSO hybrid 3</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to run a GA-PSO hybrid 4</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to change parameters for GA-PSO hybrid 4</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to run a GA-PSO hybrid 5</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to change parameters for GA-PSO hybrid 5</t>
+  </si>
+  <si>
+    <t>the system shall Collect 100 iterations of data then average that data</t>
+  </si>
+  <si>
+    <t>the system shall GUI allows selection of bench mark functions</t>
+  </si>
+  <si>
+    <t>the system shall GUI allows test case creation</t>
+  </si>
+  <si>
+    <t>the system shall Optimizer works with multiple dimensions</t>
+  </si>
+  <si>
+    <t>the system shall allows creation of multiple test cases</t>
+  </si>
+  <si>
+    <t>the system shall allows execution of mutliple test cases</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>The system shall allow the user to run a GA</t>
+  </si>
+  <si>
+    <t>the system shall allow the user to change the social component for PSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system shall allow the user to change the population size for GA </t>
+  </si>
+  <si>
+    <t>the system shall A GUI that the user can input options</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>the system shall print the collected data after running an optimizer on a ss to a CSV file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,11 +142,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,10 +176,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,31 +512,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62CE064-D8A7-4A35-A700-3EDC6A0492AC}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D2"/>
+  <mergeCells count="27">
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
